--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/9_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/9_11R22.xlsx
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08255834009622605</v>
+        <v>0.08579304699670036</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1253333663955731</v>
+        <v>0.1347752667006759</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -698,64 +698,64 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007637279683622558</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008588129985992947</v>
+        <v>0.001088830620239945</v>
       </c>
       <c r="K2">
-        <v>0.04246868831391508</v>
+        <v>0.03988588337008187</v>
       </c>
       <c r="L2">
-        <v>0.05687190164486957</v>
+        <v>0.05637918380391031</v>
       </c>
       <c r="M2">
-        <v>0.02764840485638793</v>
+        <v>0.02291499069753029</v>
       </c>
       <c r="N2">
-        <v>0.1740004012864822</v>
+        <v>0.1905044994236479</v>
       </c>
       <c r="O2">
-        <v>0.0724103871252537</v>
+        <v>0.07417249863067008</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03041842626718829</v>
+        <v>0.02608697699577392</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1190881383387395</v>
+        <v>0.1276237776369294</v>
       </c>
       <c r="T2">
-        <v>0.1204734512377975</v>
+        <v>0.1292101168318031</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.04031701842426234</v>
+        <v>0.03742197916280361</v>
       </c>
       <c r="W2">
-        <v>0.0108566365195112</v>
+        <v>0.003686525935424155</v>
       </c>
       <c r="X2">
-        <v>0.03592938499107629</v>
+        <v>0.03239764502678676</v>
       </c>
       <c r="Y2">
-        <v>0.002553311409863614</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0006946878984853317</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04087312009375536</v>
+        <v>0.03805877816702236</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.001278925430997336</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1238361575677013</v>
+        <v>0.1276139273949327</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1855586826212371</v>
+        <v>0.1924981978448884</v>
       </c>
       <c r="G3">
-        <v>0.003610073280380999</v>
+        <v>0.001229244310895644</v>
       </c>
       <c r="H3">
-        <v>0.002440728811374573</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -811,58 +811,58 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03529951484617152</v>
+        <v>0.03454198216760833</v>
       </c>
       <c r="L3">
-        <v>0.03414171668253544</v>
+        <v>0.0333248756232687</v>
       </c>
       <c r="M3">
-        <v>0.02579921309692247</v>
+        <v>0.02455502606819726</v>
       </c>
       <c r="N3">
-        <v>0.111134080554006</v>
+        <v>0.1142611846236685</v>
       </c>
       <c r="O3">
-        <v>0.09888846719753042</v>
+        <v>0.1013882879273977</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.008757819405379137</v>
+        <v>0.006640684485975726</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1334247344561416</v>
+        <v>0.1376936805404841</v>
       </c>
       <c r="T3">
-        <v>0.1354017349557963</v>
+        <v>0.1397719531806269</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.02604786016275469</v>
+        <v>0.02481641011643657</v>
       </c>
       <c r="W3">
-        <v>0.01409547731843336</v>
+        <v>0.01225176470830238</v>
       </c>
       <c r="X3">
-        <v>0.01473040366369149</v>
+        <v>0.01291921524869745</v>
       </c>
       <c r="Y3">
-        <v>0.006615058421489239</v>
+        <v>0.004388160256486823</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002355149218876323</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0261207409325054</v>
+        <v>0.02489302421430447</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.004953324464808982</v>
+        <v>0.00264130373421076</v>
       </c>
       <c r="AF3">
-        <v>0.006789062342263479</v>
+        <v>0.004571077553617423</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07406299763220055</v>
+        <v>0.07163370027426048</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1421996459907697</v>
+        <v>0.1324512596163911</v>
       </c>
       <c r="G4">
-        <v>0.01632498272710818</v>
+        <v>0.02009777603407644</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -918,61 +918,61 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.09068025874036251</v>
+        <v>0.08646597171548144</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.003242977463923474</v>
       </c>
       <c r="M4">
-        <v>0.04693837922964312</v>
+        <v>0.04742274876621322</v>
       </c>
       <c r="N4">
-        <v>0.07419422336936082</v>
+        <v>0.07175083003114198</v>
       </c>
       <c r="O4">
-        <v>0.1676141013927368</v>
+        <v>0.1551357500747875</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.007808043329027344</v>
+        <v>0.01249570754766888</v>
       </c>
       <c r="R4">
-        <v>0.01458319578020061</v>
+        <v>0.01854308801291877</v>
       </c>
       <c r="S4">
-        <v>0.1029574322484844</v>
+        <v>0.09742435822804511</v>
       </c>
       <c r="T4">
-        <v>0.1692719768106869</v>
+        <v>0.1566155401590081</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.001968392592608385</v>
       </c>
       <c r="V4">
-        <v>0.02951570636221833</v>
+        <v>0.03187158112678123</v>
       </c>
       <c r="W4">
-        <v>0.02537452855803249</v>
+        <v>0.02817523954087004</v>
       </c>
       <c r="X4">
-        <v>0.00453546641957254</v>
+        <v>0.009574663657381553</v>
       </c>
       <c r="Y4">
-        <v>0.001040029873565519</v>
+        <v>0.006454699222901135</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01000996813796743</v>
+        <v>0.01446110643300724</v>
       </c>
       <c r="AB4">
-        <v>0.01684874620641609</v>
+        <v>0.02056527799156072</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.002731464844103224</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.006040317191646783</v>
+        <v>0.01091786666686986</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1123349555335228</v>
+        <v>0.1280206564595654</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.226711022269978</v>
+        <v>0.2798852721599174</v>
       </c>
       <c r="G5">
-        <v>0.04174096478645225</v>
+        <v>0.03428837853239436</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1025,58 +1025,58 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0159168460263316</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0438997204691205</v>
+        <v>0.03715470023319885</v>
       </c>
       <c r="M5">
-        <v>0.02175326321320363</v>
+        <v>0.007749394418270763</v>
       </c>
       <c r="N5">
-        <v>0.09112151046859383</v>
+        <v>0.09985417220819572</v>
       </c>
       <c r="O5">
-        <v>0.1046961834374412</v>
+        <v>0.1178781570547991</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.007539329815603492</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.12267284517722</v>
+        <v>0.1417469515026552</v>
       </c>
       <c r="T5">
-        <v>0.1106661700963923</v>
+        <v>0.1258049004336117</v>
       </c>
       <c r="U5">
-        <v>0.01698216046366018</v>
+        <v>0.001414487945259759</v>
       </c>
       <c r="V5">
-        <v>0.02803817917472546</v>
+        <v>0.01609429011576644</v>
       </c>
       <c r="W5">
-        <v>0.008011064294840813</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02353011628200288</v>
+        <v>0.01010863893636523</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0008335789621221891</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.01535364177090774</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.008198447757881176</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1111,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2395425462300438</v>
+        <v>0.2341160742800383</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2230862494747528</v>
+        <v>0.2181647104698253</v>
       </c>
       <c r="G6">
-        <v>0.01281290757092773</v>
+        <v>0.01434324163183729</v>
       </c>
       <c r="H6">
-        <v>0.009150650978240853</v>
+        <v>0.01079335503553991</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.007991909503817516</v>
+        <v>0.009670167535012701</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0004937586102160844</v>
       </c>
       <c r="N6">
-        <v>0.0327803440766377</v>
+        <v>0.03369801195448006</v>
       </c>
       <c r="O6">
-        <v>0.1416758392482845</v>
+        <v>0.1392522375865468</v>
       </c>
       <c r="P6">
-        <v>0.002868012275796494</v>
+        <v>0.004703488213067034</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1156,34 +1156,34 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1218854591534439</v>
+        <v>0.1200690910056672</v>
       </c>
       <c r="T6">
-        <v>0.09661951609390018</v>
+        <v>0.09557838961980843</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.001337369412582549</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.03375432595927383</v>
+        <v>0.03464210889108214</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.005735741446671935</v>
+        <v>0.007483226084474047</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.03750132221206673</v>
+        <v>0.03827413505787981</v>
       </c>
       <c r="AB6">
-        <v>0.02234999660836813</v>
+        <v>0.02358770162115376</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.01224517916777378</v>
+        <v>0.01379293299078849</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1323555127108688</v>
+        <v>0.1261553640466837</v>
       </c>
       <c r="E7">
-        <v>0.07095267385346431</v>
+        <v>0.06933625972059389</v>
       </c>
       <c r="F7">
-        <v>0.1680232295360013</v>
+        <v>0.159160478485562</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.03873395320146739</v>
+        <v>0.03952267318218901</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1239,67 +1239,67 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.006566420960908485</v>
+        <v>0.009756453829795465</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.08990504111717847</v>
+        <v>0.08687382887572895</v>
       </c>
       <c r="N7">
-        <v>0.07181094286587203</v>
+        <v>0.07013045877495837</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.003297250720804796</v>
       </c>
       <c r="P7">
-        <v>0.02752991575076588</v>
+        <v>0.0291550194282118</v>
       </c>
       <c r="Q7">
-        <v>0.01526707093049121</v>
+        <v>0.01780759849225266</v>
       </c>
       <c r="R7">
-        <v>0.023625214189758</v>
+        <v>0.02554180464066132</v>
       </c>
       <c r="S7">
-        <v>0.1423692011420479</v>
+        <v>0.1354215285799139</v>
       </c>
       <c r="T7">
-        <v>0.002515933761251102</v>
+        <v>0.006008336331461402</v>
       </c>
       <c r="U7">
-        <v>0.02538212895564761</v>
+        <v>0.02716756535845087</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.03841559961609007</v>
+        <v>0.03922808475734198</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.002593543517314162</v>
       </c>
       <c r="Y7">
-        <v>0.01326368144800134</v>
+        <v>0.01595376244607682</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.04199175716466143</v>
+        <v>0.04253728141045905</v>
       </c>
       <c r="AB7">
-        <v>0.07648194906156978</v>
+        <v>0.07445277339883927</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.01480977373395479</v>
+        <v>0.0173844386253551</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.002515495377345827</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1649712590872731</v>
+        <v>0.1637263190427155</v>
       </c>
       <c r="E8">
-        <v>0.07241274824491035</v>
+        <v>0.0721319394344693</v>
       </c>
       <c r="F8">
-        <v>0.2321627324094055</v>
+        <v>0.2302178956453933</v>
       </c>
       <c r="G8">
-        <v>0.005287807405019005</v>
+        <v>0.005706202281661766</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1346,67 +1346,67 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0130419921886019</v>
+        <v>0.01337961597594206</v>
       </c>
       <c r="L8">
-        <v>0.04403914661383573</v>
+        <v>0.04405389004713691</v>
       </c>
       <c r="M8">
-        <v>0.04701274056427622</v>
+        <v>0.04699650970057211</v>
       </c>
       <c r="N8">
-        <v>0.05849797836632271</v>
+        <v>0.05836211208070619</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.0157860465808578</v>
+        <v>0.01609508705885546</v>
       </c>
       <c r="Q8">
-        <v>0.02130116052964768</v>
+        <v>0.02155275309097783</v>
       </c>
       <c r="R8">
-        <v>0.02115531962800911</v>
+        <v>0.02140843133401004</v>
       </c>
       <c r="S8">
-        <v>0.1383049282800371</v>
+        <v>0.1373377567755797</v>
       </c>
       <c r="T8">
-        <v>0.006479511683722963</v>
+        <v>0.006885493230608447</v>
       </c>
       <c r="U8">
-        <v>0.02399558181595895</v>
+        <v>0.0242191080687848</v>
       </c>
       <c r="V8">
-        <v>0.0009899595870576851</v>
+        <v>0.001453122786819144</v>
       </c>
       <c r="W8">
-        <v>0.005913225318804095</v>
+        <v>0.006325105560114368</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.02019887913468089</v>
+        <v>0.02046195355664171</v>
       </c>
       <c r="Z8">
-        <v>0.01907348392199947</v>
+        <v>0.01934828096855091</v>
       </c>
       <c r="AA8">
-        <v>0.0004245232883139631</v>
+        <v>0.000893576327827171</v>
       </c>
       <c r="AB8">
-        <v>0.04486481487028358</v>
+        <v>0.04487095777028086</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.023908037363729</v>
+        <v>0.02413247551909088</v>
       </c>
       <c r="AE8">
-        <v>0.02017812311725303</v>
+        <v>0.0204414137432616</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1432,55 +1432,55 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2341762969919355</v>
+        <v>0.2350607333866308</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1818866679515078</v>
+        <v>0.1825200033536009</v>
       </c>
       <c r="G9">
-        <v>0.006106677443753169</v>
+        <v>0.00589589650946962</v>
       </c>
       <c r="H9">
-        <v>0.0002389584161129217</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.004147294729890494</v>
+        <v>0.003927104607716969</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0430007227205885</v>
+        <v>0.04296711136199579</v>
       </c>
       <c r="M9">
-        <v>0.03492900480228157</v>
+        <v>0.03485663209811257</v>
       </c>
       <c r="N9">
-        <v>0.1124430982849784</v>
+        <v>0.1127429574396186</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.003220024664199043</v>
+        <v>0.00299538168133061</v>
       </c>
       <c r="Q9">
-        <v>0.04033040766461567</v>
+        <v>0.04028397313681292</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.14222019115482</v>
+        <v>0.1426630434366565</v>
       </c>
       <c r="T9">
-        <v>0.06012816920546694</v>
+        <v>0.06017680587372041</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1489,31 +1489,31 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.01038996742673358</v>
+        <v>0.01019975535832394</v>
       </c>
       <c r="X9">
-        <v>0.01558971214404686</v>
+        <v>0.01542446986570374</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.006614388527972207</v>
+        <v>0.006406045682455819</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.07709699704970167</v>
+        <v>0.07722712003929982</v>
       </c>
       <c r="AC9">
-        <v>0.007125876789445473</v>
+        <v>0.006919990171148847</v>
       </c>
       <c r="AD9">
-        <v>0.002175325018543305</v>
+        <v>0.001945665264226896</v>
       </c>
       <c r="AE9">
-        <v>0.01116866921145666</v>
+        <v>0.01098219656125812</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.007011549801950276</v>
+        <v>0.006805114171917133</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.216039692691914</v>
+        <v>0.1880198960242873</v>
       </c>
       <c r="E10">
-        <v>0.01698139504635199</v>
+        <v>0.02144291922096618</v>
       </c>
       <c r="F10">
-        <v>0.1737081158350948</v>
+        <v>0.1525957706322273</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.00223070274465475</v>
       </c>
       <c r="H10">
-        <v>0.01909781450953615</v>
+        <v>0.02321399211767437</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1563,64 +1563,64 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.02449284351812589</v>
+        <v>0.02772868772517563</v>
       </c>
       <c r="M10">
-        <v>0.01784298234547036</v>
+        <v>0.0221639170855959</v>
       </c>
       <c r="N10">
-        <v>0.09558109422114137</v>
+        <v>0.08721711914655675</v>
       </c>
       <c r="O10">
-        <v>0.01256177591258307</v>
+        <v>0.01774447106465667</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.006950733214777338</v>
       </c>
       <c r="Q10">
-        <v>0.008451404314502203</v>
+        <v>0.01430480900361717</v>
       </c>
       <c r="R10">
-        <v>0.01757746646254697</v>
+        <v>0.02194172673435821</v>
       </c>
       <c r="S10">
-        <v>0.1739285697763847</v>
+        <v>0.1527802520203373</v>
       </c>
       <c r="T10">
-        <v>0.02208617669940669</v>
+        <v>0.02571472856056479</v>
       </c>
       <c r="U10">
-        <v>0.02231023474600248</v>
+        <v>0.02590222595440286</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.04259543569514073</v>
+        <v>0.04287739095843576</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.004092696121589752</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.003812082929676192</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.0006041384903274318</v>
       </c>
       <c r="AA10">
-        <v>0.01181248539458603</v>
+        <v>0.01711744596340928</v>
       </c>
       <c r="AB10">
-        <v>0.08066461401190991</v>
+        <v>0.07473463433085409</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.002354538944000135</v>
       </c>
       <c r="AD10">
-        <v>0.02487983857546455</v>
+        <v>0.02805253489684232</v>
       </c>
       <c r="AE10">
-        <v>0.01316466240290294</v>
+        <v>0.01824898160303104</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.005713247214496644</v>
       </c>
       <c r="AI10">
-        <v>0.006223397840935017</v>
+        <v>0.01244035729748492</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1646,22 +1646,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1107539001211337</v>
+        <v>0.1006246063673645</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2491845429217112</v>
+        <v>0.2159836647568199</v>
       </c>
       <c r="G11">
-        <v>0.06446728011828375</v>
+        <v>0.06205235970625878</v>
       </c>
       <c r="H11">
-        <v>0.006750315583033696</v>
+        <v>0.01395481029679916</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.000897498157189093</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1670,64 +1670,64 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01752385633182297</v>
+        <v>0.02293277566022787</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1158680290750218</v>
+        <v>0.1048863874923187</v>
       </c>
       <c r="O11">
-        <v>0.03682053394125859</v>
+        <v>0.03901336673482261</v>
       </c>
       <c r="P11">
-        <v>0.009856119426116522</v>
+        <v>0.01654298441513022</v>
       </c>
       <c r="Q11">
-        <v>0.04085715519692885</v>
+        <v>0.04237722330377469</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.08791622255230926</v>
+        <v>0.0815931771487856</v>
       </c>
       <c r="T11">
-        <v>0.07507051699399521</v>
+        <v>0.07088840494246079</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.007906588171259225</v>
       </c>
       <c r="V11">
-        <v>0.03007705345137317</v>
+        <v>0.03339379043406444</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.004367607209417311</v>
       </c>
       <c r="X11">
-        <v>0.01684302289755514</v>
+        <v>0.02236541353354657</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.01634547530862549</v>
+        <v>0.02195078986206977</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.08144128486025524</v>
+        <v>0.07619738688028424</v>
       </c>
       <c r="AC11">
-        <v>0.02315485981084714</v>
+        <v>0.02762528626327237</v>
       </c>
       <c r="AD11">
-        <v>0.002445433572380818</v>
+        <v>0.01036740273168346</v>
       </c>
       <c r="AE11">
-        <v>0.01462439783734757</v>
+        <v>0.02051655628137374</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.003561919651076925</v>
       </c>
     </row>
   </sheetData>
@@ -1873,100 +1873,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08255834009622605</v>
+        <v>0.08579304699670036</v>
       </c>
       <c r="E2">
-        <v>0.08255834009622605</v>
+        <v>0.08579304699670036</v>
       </c>
       <c r="F2">
-        <v>0.2078917064917991</v>
+        <v>0.2205683136973763</v>
       </c>
       <c r="G2">
-        <v>0.2078917064917991</v>
+        <v>0.2205683136973763</v>
       </c>
       <c r="H2">
-        <v>0.2078917064917991</v>
+        <v>0.2205683136973763</v>
       </c>
       <c r="I2">
-        <v>0.2155289861754217</v>
+        <v>0.2205683136973763</v>
       </c>
       <c r="J2">
-        <v>0.2241171161614146</v>
+        <v>0.2216571443176162</v>
       </c>
       <c r="K2">
-        <v>0.2665858044753297</v>
+        <v>0.2615430276876981</v>
       </c>
       <c r="L2">
-        <v>0.3234577061201993</v>
+        <v>0.3179222114916084</v>
       </c>
       <c r="M2">
-        <v>0.3511061109765872</v>
+        <v>0.3408372021891387</v>
       </c>
       <c r="N2">
-        <v>0.5251065122630694</v>
+        <v>0.5313417016127866</v>
       </c>
       <c r="O2">
-        <v>0.5975168993883231</v>
+        <v>0.6055142002434567</v>
       </c>
       <c r="P2">
-        <v>0.5975168993883231</v>
+        <v>0.6055142002434567</v>
       </c>
       <c r="Q2">
-        <v>0.6279353256555114</v>
+        <v>0.6316011772392306</v>
       </c>
       <c r="R2">
-        <v>0.6279353256555114</v>
+        <v>0.6316011772392306</v>
       </c>
       <c r="S2">
-        <v>0.7470234639942509</v>
+        <v>0.7592249548761599</v>
       </c>
       <c r="T2">
-        <v>0.8674969152320484</v>
+        <v>0.888435071707963</v>
       </c>
       <c r="U2">
-        <v>0.8674969152320484</v>
+        <v>0.888435071707963</v>
       </c>
       <c r="V2">
-        <v>0.9078139336563108</v>
+        <v>0.9258570508707666</v>
       </c>
       <c r="W2">
-        <v>0.918670570175822</v>
+        <v>0.9295435768061908</v>
       </c>
       <c r="X2">
-        <v>0.9545999551668982</v>
+        <v>0.9619412218329776</v>
       </c>
       <c r="Y2">
-        <v>0.9571532665767618</v>
+        <v>0.9619412218329776</v>
       </c>
       <c r="Z2">
-        <v>0.9578479544752472</v>
+        <v>0.9619412218329776</v>
       </c>
       <c r="AA2">
-        <v>0.9578479544752472</v>
+        <v>0.9619412218329776</v>
       </c>
       <c r="AB2">
-        <v>0.9987210745690025</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9987210745690025</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9987210745690025</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1980,100 +1980,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1238361575677013</v>
+        <v>0.1276139273949327</v>
       </c>
       <c r="E3">
-        <v>0.1238361575677013</v>
+        <v>0.1276139273949327</v>
       </c>
       <c r="F3">
-        <v>0.3093948401889384</v>
+        <v>0.3201121252398211</v>
       </c>
       <c r="G3">
-        <v>0.3130049134693194</v>
+        <v>0.3213413695507167</v>
       </c>
       <c r="H3">
-        <v>0.315445642280694</v>
+        <v>0.3213413695507167</v>
       </c>
       <c r="I3">
-        <v>0.315445642280694</v>
+        <v>0.3213413695507167</v>
       </c>
       <c r="J3">
-        <v>0.315445642280694</v>
+        <v>0.3213413695507167</v>
       </c>
       <c r="K3">
-        <v>0.3507451571268655</v>
+        <v>0.3558833517183251</v>
       </c>
       <c r="L3">
-        <v>0.384886873809401</v>
+        <v>0.3892082273415938</v>
       </c>
       <c r="M3">
-        <v>0.4106860869063234</v>
+        <v>0.413763253409791</v>
       </c>
       <c r="N3">
-        <v>0.5218201674603294</v>
+        <v>0.5280244380334596</v>
       </c>
       <c r="O3">
-        <v>0.6207086346578599</v>
+        <v>0.6294127259608573</v>
       </c>
       <c r="P3">
-        <v>0.6207086346578599</v>
+        <v>0.6294127259608573</v>
       </c>
       <c r="Q3">
-        <v>0.629466454063239</v>
+        <v>0.6360534104468331</v>
       </c>
       <c r="R3">
-        <v>0.629466454063239</v>
+        <v>0.6360534104468331</v>
       </c>
       <c r="S3">
-        <v>0.7628911885193805</v>
+        <v>0.7737470909873171</v>
       </c>
       <c r="T3">
-        <v>0.8982929234751769</v>
+        <v>0.913519044167944</v>
       </c>
       <c r="U3">
-        <v>0.8982929234751769</v>
+        <v>0.913519044167944</v>
       </c>
       <c r="V3">
-        <v>0.9243407836379316</v>
+        <v>0.9383354542843806</v>
       </c>
       <c r="W3">
-        <v>0.938436260956365</v>
+        <v>0.9505872189926829</v>
       </c>
       <c r="X3">
-        <v>0.9531666646200565</v>
+        <v>0.9635064342413804</v>
       </c>
       <c r="Y3">
-        <v>0.9597817230415457</v>
+        <v>0.9678945944978672</v>
       </c>
       <c r="Z3">
-        <v>0.9597817230415457</v>
+        <v>0.9678945944978672</v>
       </c>
       <c r="AA3">
-        <v>0.9621368722604221</v>
+        <v>0.9678945944978672</v>
       </c>
       <c r="AB3">
-        <v>0.9882576131929275</v>
+        <v>0.9927876187121717</v>
       </c>
       <c r="AC3">
-        <v>0.9882576131929275</v>
+        <v>0.9927876187121717</v>
       </c>
       <c r="AD3">
-        <v>0.9882576131929275</v>
+        <v>0.9927876187121717</v>
       </c>
       <c r="AE3">
-        <v>0.9932109376577365</v>
+        <v>0.9954289224463825</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -2087,88 +2087,88 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07406299763220055</v>
+        <v>0.07163370027426048</v>
       </c>
       <c r="E4">
-        <v>0.07406299763220055</v>
+        <v>0.07163370027426048</v>
       </c>
       <c r="F4">
-        <v>0.2162626436229703</v>
+        <v>0.2040849598906516</v>
       </c>
       <c r="G4">
-        <v>0.2325876263500785</v>
+        <v>0.2241827359247281</v>
       </c>
       <c r="H4">
-        <v>0.2325876263500785</v>
+        <v>0.2241827359247281</v>
       </c>
       <c r="I4">
-        <v>0.2325876263500785</v>
+        <v>0.2241827359247281</v>
       </c>
       <c r="J4">
-        <v>0.2325876263500785</v>
+        <v>0.2241827359247281</v>
       </c>
       <c r="K4">
-        <v>0.323267885090441</v>
+        <v>0.3106487076402095</v>
       </c>
       <c r="L4">
-        <v>0.323267885090441</v>
+        <v>0.313891685104133</v>
       </c>
       <c r="M4">
-        <v>0.3702062643200841</v>
+        <v>0.3613144338703462</v>
       </c>
       <c r="N4">
-        <v>0.4444004876894449</v>
+        <v>0.4330652639014882</v>
       </c>
       <c r="O4">
-        <v>0.6120145890821818</v>
+        <v>0.5882010139762757</v>
       </c>
       <c r="P4">
-        <v>0.6120145890821818</v>
+        <v>0.5882010139762757</v>
       </c>
       <c r="Q4">
-        <v>0.6198226324112091</v>
+        <v>0.6006967215239445</v>
       </c>
       <c r="R4">
-        <v>0.6344058281914097</v>
+        <v>0.6192398095368633</v>
       </c>
       <c r="S4">
-        <v>0.7373632604398941</v>
+        <v>0.7166641677649084</v>
       </c>
       <c r="T4">
-        <v>0.906635237250581</v>
+        <v>0.8732797079239165</v>
       </c>
       <c r="U4">
-        <v>0.906635237250581</v>
+        <v>0.8752481005165249</v>
       </c>
       <c r="V4">
-        <v>0.9361509436127994</v>
+        <v>0.9071196816433061</v>
       </c>
       <c r="W4">
-        <v>0.9615254721708318</v>
+        <v>0.9352949211841762</v>
       </c>
       <c r="X4">
-        <v>0.9660609385904044</v>
+        <v>0.9448695848415578</v>
       </c>
       <c r="Y4">
-        <v>0.96710096846397</v>
+        <v>0.9513242840644589</v>
       </c>
       <c r="Z4">
-        <v>0.96710096846397</v>
+        <v>0.9513242840644589</v>
       </c>
       <c r="AA4">
-        <v>0.9771109366019374</v>
+        <v>0.9657853904974661</v>
       </c>
       <c r="AB4">
-        <v>0.9939596828083535</v>
+        <v>0.9863506684890269</v>
       </c>
       <c r="AC4">
-        <v>0.9939596828083535</v>
+        <v>0.9890821333331301</v>
       </c>
       <c r="AD4">
-        <v>0.9939596828083535</v>
+        <v>0.9890821333331301</v>
       </c>
       <c r="AE4">
-        <v>0.9939596828083535</v>
+        <v>0.9890821333331301</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -2194,88 +2194,88 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1123349555335228</v>
+        <v>0.1280206564595654</v>
       </c>
       <c r="E5">
-        <v>0.1123349555335228</v>
+        <v>0.1280206564595654</v>
       </c>
       <c r="F5">
-        <v>0.3390459778035009</v>
+        <v>0.4079059286194828</v>
       </c>
       <c r="G5">
-        <v>0.3807869425899531</v>
+        <v>0.4421943071518772</v>
       </c>
       <c r="H5">
-        <v>0.3807869425899531</v>
+        <v>0.4421943071518772</v>
       </c>
       <c r="I5">
-        <v>0.3807869425899531</v>
+        <v>0.4421943071518772</v>
       </c>
       <c r="J5">
-        <v>0.3807869425899531</v>
+        <v>0.4421943071518772</v>
       </c>
       <c r="K5">
-        <v>0.3967037886162847</v>
+        <v>0.4421943071518772</v>
       </c>
       <c r="L5">
-        <v>0.4406035090854052</v>
+        <v>0.479349007385076</v>
       </c>
       <c r="M5">
-        <v>0.4623567722986088</v>
+        <v>0.4870984018033468</v>
       </c>
       <c r="N5">
-        <v>0.5534782827672027</v>
+        <v>0.5869525740115425</v>
       </c>
       <c r="O5">
-        <v>0.6581744662046439</v>
+        <v>0.7048307310663416</v>
       </c>
       <c r="P5">
-        <v>0.6581744662046439</v>
+        <v>0.7048307310663416</v>
       </c>
       <c r="Q5">
-        <v>0.6657137960202474</v>
+        <v>0.7048307310663416</v>
       </c>
       <c r="R5">
-        <v>0.6657137960202474</v>
+        <v>0.7048307310663416</v>
       </c>
       <c r="S5">
-        <v>0.7883866411974674</v>
+        <v>0.8465776825689969</v>
       </c>
       <c r="T5">
-        <v>0.8990528112938596</v>
+        <v>0.9723825830026086</v>
       </c>
       <c r="U5">
-        <v>0.9160349717575198</v>
+        <v>0.9737970709478684</v>
       </c>
       <c r="V5">
-        <v>0.9440731509322453</v>
+        <v>0.9898913610636348</v>
       </c>
       <c r="W5">
-        <v>0.9520842152270861</v>
+        <v>0.9898913610636348</v>
       </c>
       <c r="X5">
-        <v>0.9520842152270861</v>
+        <v>0.9898913610636348</v>
       </c>
       <c r="Y5">
-        <v>0.9756143315090889</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9756143315090889</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9764479104712112</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9918015522421189</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9918015522421189</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9918015522421189</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9918015522421189</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -2301,100 +2301,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2395425462300438</v>
+        <v>0.2341160742800383</v>
       </c>
       <c r="E6">
-        <v>0.2395425462300438</v>
+        <v>0.2341160742800383</v>
       </c>
       <c r="F6">
-        <v>0.4626287957047966</v>
+        <v>0.4522807847498637</v>
       </c>
       <c r="G6">
-        <v>0.4754417032757244</v>
+        <v>0.466624026381701</v>
       </c>
       <c r="H6">
-        <v>0.4845923542539652</v>
+        <v>0.4774173814172409</v>
       </c>
       <c r="I6">
-        <v>0.4845923542539652</v>
+        <v>0.4774173814172409</v>
       </c>
       <c r="J6">
-        <v>0.4845923542539652</v>
+        <v>0.4774173814172409</v>
       </c>
       <c r="K6">
-        <v>0.4925842637577827</v>
+        <v>0.4870875489522536</v>
       </c>
       <c r="L6">
-        <v>0.4925842637577827</v>
+        <v>0.4870875489522536</v>
       </c>
       <c r="M6">
-        <v>0.4925842637577827</v>
+        <v>0.4875813075624697</v>
       </c>
       <c r="N6">
-        <v>0.5253646078344204</v>
+        <v>0.5212793195169497</v>
       </c>
       <c r="O6">
-        <v>0.6670404470827049</v>
+        <v>0.6605315571034965</v>
       </c>
       <c r="P6">
-        <v>0.6699084593585014</v>
+        <v>0.6652350453165635</v>
       </c>
       <c r="Q6">
-        <v>0.6699084593585014</v>
+        <v>0.6652350453165635</v>
       </c>
       <c r="R6">
-        <v>0.6699084593585014</v>
+        <v>0.6652350453165635</v>
       </c>
       <c r="S6">
-        <v>0.7917939185119452</v>
+        <v>0.7853041363222307</v>
       </c>
       <c r="T6">
-        <v>0.8884134346058454</v>
+        <v>0.8808825259420392</v>
       </c>
       <c r="U6">
-        <v>0.8884134346058454</v>
+        <v>0.8822198953546218</v>
       </c>
       <c r="V6">
-        <v>0.8884134346058454</v>
+        <v>0.8822198953546218</v>
       </c>
       <c r="W6">
-        <v>0.9221677605651193</v>
+        <v>0.9168620042457039</v>
       </c>
       <c r="X6">
-        <v>0.9221677605651193</v>
+        <v>0.9168620042457039</v>
       </c>
       <c r="Y6">
-        <v>0.9279035020117912</v>
+        <v>0.9243452303301779</v>
       </c>
       <c r="Z6">
-        <v>0.9279035020117912</v>
+        <v>0.9243452303301779</v>
       </c>
       <c r="AA6">
-        <v>0.9654048242238579</v>
+        <v>0.9626193653880577</v>
       </c>
       <c r="AB6">
-        <v>0.987754820832226</v>
+        <v>0.9862070670092115</v>
       </c>
       <c r="AC6">
-        <v>0.987754820832226</v>
+        <v>0.9862070670092115</v>
       </c>
       <c r="AD6">
-        <v>0.987754820832226</v>
+        <v>0.9862070670092115</v>
       </c>
       <c r="AE6">
-        <v>0.987754820832226</v>
+        <v>0.9862070670092115</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -2408,85 +2408,85 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1323555127108688</v>
+        <v>0.1261553640466837</v>
       </c>
       <c r="E7">
-        <v>0.2033081865643331</v>
+        <v>0.1954916237672776</v>
       </c>
       <c r="F7">
-        <v>0.3713314161003344</v>
+        <v>0.3546521022528396</v>
       </c>
       <c r="G7">
-        <v>0.3713314161003344</v>
+        <v>0.3546521022528396</v>
       </c>
       <c r="H7">
-        <v>0.4100653693018018</v>
+        <v>0.3941747754350286</v>
       </c>
       <c r="I7">
-        <v>0.4100653693018018</v>
+        <v>0.3941747754350286</v>
       </c>
       <c r="J7">
-        <v>0.4100653693018018</v>
+        <v>0.3941747754350286</v>
       </c>
       <c r="K7">
-        <v>0.4166317902627102</v>
+        <v>0.4039312292648241</v>
       </c>
       <c r="L7">
-        <v>0.4166317902627102</v>
+        <v>0.4039312292648241</v>
       </c>
       <c r="M7">
-        <v>0.5065368313798887</v>
+        <v>0.490805058140553</v>
       </c>
       <c r="N7">
-        <v>0.5783477742457608</v>
+        <v>0.5609355169155114</v>
       </c>
       <c r="O7">
-        <v>0.5783477742457608</v>
+        <v>0.5642327676363161</v>
       </c>
       <c r="P7">
-        <v>0.6058776899965267</v>
+        <v>0.5933877870645279</v>
       </c>
       <c r="Q7">
-        <v>0.6211447609270179</v>
+        <v>0.6111953855567805</v>
       </c>
       <c r="R7">
-        <v>0.6447699751167759</v>
+        <v>0.6367371901974419</v>
       </c>
       <c r="S7">
-        <v>0.7871391762588238</v>
+        <v>0.7721587187773558</v>
       </c>
       <c r="T7">
-        <v>0.7896551100200749</v>
+        <v>0.7781670551088171</v>
       </c>
       <c r="U7">
-        <v>0.8150372389757226</v>
+        <v>0.805334620467268</v>
       </c>
       <c r="V7">
-        <v>0.8150372389757226</v>
+        <v>0.805334620467268</v>
       </c>
       <c r="W7">
-        <v>0.8534528385918126</v>
+        <v>0.84456270522461</v>
       </c>
       <c r="X7">
-        <v>0.8534528385918126</v>
+        <v>0.8471562487419241</v>
       </c>
       <c r="Y7">
-        <v>0.866716520039814</v>
+        <v>0.8631100111880009</v>
       </c>
       <c r="Z7">
-        <v>0.866716520039814</v>
+        <v>0.8631100111880009</v>
       </c>
       <c r="AA7">
-        <v>0.9087082772044754</v>
+        <v>0.90564729259846</v>
       </c>
       <c r="AB7">
-        <v>0.9851902262660452</v>
+        <v>0.9801000659972993</v>
       </c>
       <c r="AC7">
-        <v>0.9851902262660452</v>
+        <v>0.9801000659972993</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.9974845046226544</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -2515,85 +2515,85 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1649712590872731</v>
+        <v>0.1637263190427155</v>
       </c>
       <c r="E8">
-        <v>0.2373840073321835</v>
+        <v>0.2358582584771848</v>
       </c>
       <c r="F8">
-        <v>0.4695467397415891</v>
+        <v>0.4660761541225781</v>
       </c>
       <c r="G8">
-        <v>0.4748345471466081</v>
+        <v>0.4717823564042398</v>
       </c>
       <c r="H8">
-        <v>0.4748345471466081</v>
+        <v>0.4717823564042398</v>
       </c>
       <c r="I8">
-        <v>0.4748345471466081</v>
+        <v>0.4717823564042398</v>
       </c>
       <c r="J8">
-        <v>0.4748345471466081</v>
+        <v>0.4717823564042398</v>
       </c>
       <c r="K8">
-        <v>0.48787653933521</v>
+        <v>0.4851619723801819</v>
       </c>
       <c r="L8">
-        <v>0.5319156859490457</v>
+        <v>0.5292158624273188</v>
       </c>
       <c r="M8">
-        <v>0.5789284265133219</v>
+        <v>0.5762123721278909</v>
       </c>
       <c r="N8">
-        <v>0.6374264048796446</v>
+        <v>0.6345744842085971</v>
       </c>
       <c r="O8">
-        <v>0.6374264048796446</v>
+        <v>0.6345744842085971</v>
       </c>
       <c r="P8">
-        <v>0.6532124514605024</v>
+        <v>0.6506695712674525</v>
       </c>
       <c r="Q8">
-        <v>0.6745136119901501</v>
+        <v>0.6722223243584303</v>
       </c>
       <c r="R8">
-        <v>0.6956689316181592</v>
+        <v>0.6936307556924404</v>
       </c>
       <c r="S8">
-        <v>0.8339738598981963</v>
+        <v>0.8309685124680202</v>
       </c>
       <c r="T8">
-        <v>0.8404533715819192</v>
+        <v>0.8378540056986287</v>
       </c>
       <c r="U8">
-        <v>0.8644489533978782</v>
+        <v>0.8620731137674135</v>
       </c>
       <c r="V8">
-        <v>0.8654389129849359</v>
+        <v>0.8635262365542327</v>
       </c>
       <c r="W8">
-        <v>0.87135213830374</v>
+        <v>0.869851342114347</v>
       </c>
       <c r="X8">
-        <v>0.87135213830374</v>
+        <v>0.869851342114347</v>
       </c>
       <c r="Y8">
-        <v>0.8915510174384209</v>
+        <v>0.8903132956709887</v>
       </c>
       <c r="Z8">
-        <v>0.9106245013604204</v>
+        <v>0.9096615766395396</v>
       </c>
       <c r="AA8">
-        <v>0.9110490246487344</v>
+        <v>0.9105551529673668</v>
       </c>
       <c r="AB8">
-        <v>0.955913839519018</v>
+        <v>0.9554261107376476</v>
       </c>
       <c r="AC8">
-        <v>0.955913839519018</v>
+        <v>0.9554261107376476</v>
       </c>
       <c r="AD8">
-        <v>0.979821876882747</v>
+        <v>0.9795585862567385</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2622,100 +2622,100 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2341762969919355</v>
+        <v>0.2350607333866308</v>
       </c>
       <c r="E9">
-        <v>0.2341762969919355</v>
+        <v>0.2350607333866308</v>
       </c>
       <c r="F9">
-        <v>0.4160629649434432</v>
+        <v>0.4175807367402318</v>
       </c>
       <c r="G9">
-        <v>0.4221696423871964</v>
+        <v>0.4234766332497014</v>
       </c>
       <c r="H9">
-        <v>0.4224086008033093</v>
+        <v>0.4234766332497014</v>
       </c>
       <c r="I9">
-        <v>0.4224086008033093</v>
+        <v>0.4234766332497014</v>
       </c>
       <c r="J9">
-        <v>0.4265558955331998</v>
+        <v>0.4274037378574184</v>
       </c>
       <c r="K9">
-        <v>0.4265558955331998</v>
+        <v>0.4274037378574184</v>
       </c>
       <c r="L9">
-        <v>0.4695566182537884</v>
+        <v>0.4703708492194141</v>
       </c>
       <c r="M9">
-        <v>0.5044856230560699</v>
+        <v>0.5052274813175267</v>
       </c>
       <c r="N9">
-        <v>0.6169287213410483</v>
+        <v>0.6179704387571453</v>
       </c>
       <c r="O9">
-        <v>0.6169287213410483</v>
+        <v>0.6179704387571453</v>
       </c>
       <c r="P9">
-        <v>0.6201487460052473</v>
+        <v>0.6209658204384759</v>
       </c>
       <c r="Q9">
-        <v>0.660479153669863</v>
+        <v>0.6612497935752888</v>
       </c>
       <c r="R9">
-        <v>0.660479153669863</v>
+        <v>0.6612497935752888</v>
       </c>
       <c r="S9">
-        <v>0.802699344824683</v>
+        <v>0.8039128370119453</v>
       </c>
       <c r="T9">
-        <v>0.8628275140301499</v>
+        <v>0.8640896428856657</v>
       </c>
       <c r="U9">
-        <v>0.8628275140301499</v>
+        <v>0.8640896428856657</v>
       </c>
       <c r="V9">
-        <v>0.8628275140301499</v>
+        <v>0.8640896428856657</v>
       </c>
       <c r="W9">
-        <v>0.8732174814568835</v>
+        <v>0.8742893982439897</v>
       </c>
       <c r="X9">
-        <v>0.8888071936009303</v>
+        <v>0.8897138681096934</v>
       </c>
       <c r="Y9">
-        <v>0.8888071936009303</v>
+        <v>0.8897138681096934</v>
       </c>
       <c r="Z9">
-        <v>0.8954215821289025</v>
+        <v>0.8961199137921493</v>
       </c>
       <c r="AA9">
-        <v>0.8954215821289025</v>
+        <v>0.8961199137921493</v>
       </c>
       <c r="AB9">
-        <v>0.9725185791786042</v>
+        <v>0.9733470338314492</v>
       </c>
       <c r="AC9">
-        <v>0.9796444559680496</v>
+        <v>0.980267024002598</v>
       </c>
       <c r="AD9">
-        <v>0.9818197809865929</v>
+        <v>0.9822126892668249</v>
       </c>
       <c r="AE9">
-        <v>0.9929884501980496</v>
+        <v>0.993194885828083</v>
       </c>
       <c r="AF9">
-        <v>0.9929884501980496</v>
+        <v>0.993194885828083</v>
       </c>
       <c r="AG9">
-        <v>0.9929884501980496</v>
+        <v>0.993194885828083</v>
       </c>
       <c r="AH9">
-        <v>0.9929884501980496</v>
+        <v>0.993194885828083</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -2729,100 +2729,100 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.216039692691914</v>
+        <v>0.1880198960242873</v>
       </c>
       <c r="E10">
-        <v>0.233021087738266</v>
+        <v>0.2094628152452535</v>
       </c>
       <c r="F10">
-        <v>0.4067292035733607</v>
+        <v>0.3620585858774809</v>
       </c>
       <c r="G10">
-        <v>0.4067292035733607</v>
+        <v>0.3642892886221356</v>
       </c>
       <c r="H10">
-        <v>0.4258270180828969</v>
+        <v>0.38750328073981</v>
       </c>
       <c r="I10">
-        <v>0.4258270180828969</v>
+        <v>0.38750328073981</v>
       </c>
       <c r="J10">
-        <v>0.4258270180828969</v>
+        <v>0.38750328073981</v>
       </c>
       <c r="K10">
-        <v>0.4258270180828969</v>
+        <v>0.38750328073981</v>
       </c>
       <c r="L10">
-        <v>0.4503198616010228</v>
+        <v>0.4152319684649856</v>
       </c>
       <c r="M10">
-        <v>0.4681628439464932</v>
+        <v>0.4373958855505815</v>
       </c>
       <c r="N10">
-        <v>0.5637439381676346</v>
+        <v>0.5246130046971382</v>
       </c>
       <c r="O10">
-        <v>0.5763057140802177</v>
+        <v>0.5423574757617949</v>
       </c>
       <c r="P10">
-        <v>0.5763057140802177</v>
+        <v>0.5493082089765723</v>
       </c>
       <c r="Q10">
-        <v>0.5847571183947199</v>
+        <v>0.5636130179801895</v>
       </c>
       <c r="R10">
-        <v>0.6023345848572669</v>
+        <v>0.5855547447145477</v>
       </c>
       <c r="S10">
-        <v>0.7762631546336516</v>
+        <v>0.738334996734885</v>
       </c>
       <c r="T10">
-        <v>0.7983493313330583</v>
+        <v>0.7640497252954498</v>
       </c>
       <c r="U10">
-        <v>0.8206595660790608</v>
+        <v>0.7899519512498526</v>
       </c>
       <c r="V10">
-        <v>0.8206595660790608</v>
+        <v>0.7899519512498526</v>
       </c>
       <c r="W10">
-        <v>0.8632550017742014</v>
+        <v>0.8328293422082884</v>
       </c>
       <c r="X10">
-        <v>0.8632550017742014</v>
+        <v>0.8369220383298782</v>
       </c>
       <c r="Y10">
-        <v>0.8632550017742014</v>
+        <v>0.8407341212595544</v>
       </c>
       <c r="Z10">
-        <v>0.8632550017742014</v>
+        <v>0.8413382597498819</v>
       </c>
       <c r="AA10">
-        <v>0.8750674871687875</v>
+        <v>0.8584557057132911</v>
       </c>
       <c r="AB10">
-        <v>0.9557321011806974</v>
+        <v>0.9331903400441453</v>
       </c>
       <c r="AC10">
-        <v>0.9557321011806974</v>
+        <v>0.9355448789881454</v>
       </c>
       <c r="AD10">
-        <v>0.9806119397561619</v>
+        <v>0.9635974138849878</v>
       </c>
       <c r="AE10">
-        <v>0.9937766021590648</v>
+        <v>0.9818463954880188</v>
       </c>
       <c r="AF10">
-        <v>0.9937766021590648</v>
+        <v>0.9818463954880188</v>
       </c>
       <c r="AG10">
-        <v>0.9937766021590648</v>
+        <v>0.9818463954880188</v>
       </c>
       <c r="AH10">
-        <v>0.9937766021590648</v>
+        <v>0.9875596427025154</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2836,100 +2836,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1107539001211337</v>
+        <v>0.1006246063673645</v>
       </c>
       <c r="E11">
-        <v>0.1107539001211337</v>
+        <v>0.1006246063673645</v>
       </c>
       <c r="F11">
-        <v>0.3599384430428449</v>
+        <v>0.3166082711241844</v>
       </c>
       <c r="G11">
-        <v>0.4244057231611286</v>
+        <v>0.3786606308304432</v>
       </c>
       <c r="H11">
-        <v>0.4311560387441623</v>
+        <v>0.3926154411272423</v>
       </c>
       <c r="I11">
-        <v>0.4311560387441623</v>
+        <v>0.3935129392844314</v>
       </c>
       <c r="J11">
-        <v>0.4311560387441623</v>
+        <v>0.3935129392844314</v>
       </c>
       <c r="K11">
-        <v>0.4311560387441623</v>
+        <v>0.3935129392844314</v>
       </c>
       <c r="L11">
-        <v>0.4486798950759853</v>
+        <v>0.4164457149446593</v>
       </c>
       <c r="M11">
-        <v>0.4486798950759853</v>
+        <v>0.4164457149446593</v>
       </c>
       <c r="N11">
-        <v>0.5645479241510071</v>
+        <v>0.521332102436978</v>
       </c>
       <c r="O11">
-        <v>0.6013684580922657</v>
+        <v>0.5603454691718006</v>
       </c>
       <c r="P11">
-        <v>0.6112245775183822</v>
+        <v>0.5768884535869309</v>
       </c>
       <c r="Q11">
-        <v>0.6520817327153111</v>
+        <v>0.6192656768907056</v>
       </c>
       <c r="R11">
-        <v>0.6520817327153111</v>
+        <v>0.6192656768907056</v>
       </c>
       <c r="S11">
-        <v>0.7399979552676204</v>
+        <v>0.7008588540394911</v>
       </c>
       <c r="T11">
-        <v>0.8150684722616156</v>
+        <v>0.7717472589819518</v>
       </c>
       <c r="U11">
-        <v>0.8150684722616156</v>
+        <v>0.7796538471532111</v>
       </c>
       <c r="V11">
-        <v>0.8451455257129887</v>
+        <v>0.8130476375872755</v>
       </c>
       <c r="W11">
-        <v>0.8451455257129887</v>
+        <v>0.8174152447966928</v>
       </c>
       <c r="X11">
-        <v>0.8619885486105439</v>
+        <v>0.8397806583302394</v>
       </c>
       <c r="Y11">
-        <v>0.8619885486105439</v>
+        <v>0.8397806583302394</v>
       </c>
       <c r="Z11">
-        <v>0.8783340239191694</v>
+        <v>0.8617314481923092</v>
       </c>
       <c r="AA11">
-        <v>0.8783340239191694</v>
+        <v>0.8617314481923092</v>
       </c>
       <c r="AB11">
-        <v>0.9597753087794246</v>
+        <v>0.9379288350725934</v>
       </c>
       <c r="AC11">
-        <v>0.9829301685902718</v>
+        <v>0.9655541213358657</v>
       </c>
       <c r="AD11">
-        <v>0.9853756021626526</v>
+        <v>0.9759215240675492</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9964380803489229</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9964380803489229</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9964380803489229</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9964380803489229</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5251065122630694</v>
+        <v>0.5313417016127866</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5218201674603294</v>
+        <v>0.5280244380334596</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6120145890821818</v>
+        <v>0.5882010139762757</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5534782827672027</v>
+        <v>0.5869525740115425</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5253646078344204</v>
+        <v>0.5212793195169497</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -3202,16 +3202,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.5609355169155114</v>
+      </c>
+      <c r="G7">
         <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5065368313798887</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5319156859490457</v>
+        <v>0.5292158624273188</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5044856230560699</v>
+        <v>0.5052274813175267</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5637439381676346</v>
+        <v>0.5246130046971382</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5645479241510071</v>
+        <v>0.521332102436978</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7470234639942509</v>
+        <v>0.7592249548761599</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7628911885193805</v>
+        <v>0.7737470909873171</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7373632604398941</v>
+        <v>0.7166641677649084</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -3584,16 +3584,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7883866411974674</v>
+        <v>0.7048307310663416</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7917939185119452</v>
+        <v>0.7853041363222307</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7871391762588238</v>
+        <v>0.7721587187773558</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8339738598981963</v>
+        <v>0.8309685124680202</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.802699344824683</v>
+        <v>0.8039128370119453</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7762631546336516</v>
+        <v>0.738334996734885</v>
       </c>
       <c r="G10">
         <v>17</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7399979552676204</v>
+        <v>0.7008588540394911</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8674969152320484</v>
+        <v>0.888435071707963</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8982929234751769</v>
+        <v>0.913519044167944</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.906635237250581</v>
+        <v>0.8732797079239165</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -4048,16 +4048,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8990528112938596</v>
+        <v>0.8465776825689969</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8884134346058454</v>
+        <v>0.8808825259420392</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8150372389757226</v>
+        <v>0.805334620467268</v>
       </c>
       <c r="G7">
         <v>19</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8339738598981963</v>
+        <v>0.8309685124680202</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.802699344824683</v>
+        <v>0.8039128370119453</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -4253,16 +4253,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8206595660790608</v>
+        <v>0.8328293422082884</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -4294,16 +4294,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8150684722616156</v>
+        <v>0.8130476375872755</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9078139336563108</v>
+        <v>0.9258570508707666</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -4430,16 +4430,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9243407836379316</v>
+        <v>0.913519044167944</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -4471,16 +4471,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.906635237250581</v>
+        <v>0.9071196816433061</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -4512,16 +4512,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9160349717575198</v>
+        <v>0.9723825830026086</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9221677605651193</v>
+        <v>0.9168620042457039</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9087082772044754</v>
+        <v>0.90564729259846</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9106245013604204</v>
+        <v>0.9096615766395396</v>
       </c>
       <c r="G8">
         <v>24</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9725185791786042</v>
+        <v>0.9733470338314492</v>
       </c>
       <c r="G9">
         <v>26</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9557321011806974</v>
+        <v>0.9331903400441453</v>
       </c>
       <c r="G10">
         <v>26</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9597753087794246</v>
+        <v>0.9379288350725934</v>
       </c>
       <c r="G11">
         <v>26</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/9_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/9_11R22.xlsx
@@ -156,40 +156,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -199,9 +202,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08579304699670036</v>
+        <v>0.08991804751633622</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1347752667006759</v>
+        <v>0.1588258611401738</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -701,49 +701,49 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001088830620239945</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03988588337008187</v>
+        <v>0.02533619936204987</v>
       </c>
       <c r="L2">
-        <v>0.05637918380391031</v>
+        <v>0.04853884879698281</v>
       </c>
       <c r="M2">
-        <v>0.02291499069753029</v>
+        <v>0.00146167680309322</v>
       </c>
       <c r="N2">
-        <v>0.1905044994236479</v>
+        <v>0.2372253212929023</v>
       </c>
       <c r="O2">
-        <v>0.07417249863067008</v>
+        <v>0.07357034857879269</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.02608697699577392</v>
+        <v>0.005924002969152995</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1276237776369294</v>
+        <v>0.1487652007920768</v>
       </c>
       <c r="T2">
-        <v>0.1292101168318031</v>
+        <v>0.150996850689635</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.03742197916280361</v>
+        <v>0.02186999768870391</v>
       </c>
       <c r="W2">
-        <v>0.003686525935424155</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.03239764502678676</v>
+        <v>0.01480180269221553</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03805877816702236</v>
+        <v>0.02276584167788493</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1276139273949327</v>
+        <v>0.1507088421227853</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1924981978448884</v>
+        <v>0.2461533462889586</v>
       </c>
       <c r="G3">
-        <v>0.001229244310895644</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -811,49 +811,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03454198216760833</v>
+        <v>0.01380038029682257</v>
       </c>
       <c r="L3">
-        <v>0.0333248756232687</v>
+        <v>0.01201002140342178</v>
       </c>
       <c r="M3">
-        <v>0.02455502606819726</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1142611846236685</v>
+        <v>0.1310670105321115</v>
       </c>
       <c r="O3">
-        <v>0.1013882879273977</v>
+        <v>0.1121310306122083</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.006640684485975726</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1376936805404841</v>
+        <v>0.1655361189715957</v>
       </c>
       <c r="T3">
-        <v>0.1397719531806269</v>
+        <v>0.1685932497720962</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.02481641011643657</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01225176470830238</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01291921524869745</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.004388160256486823</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02489302421430447</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.00264130373421076</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004571077553617423</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07163370027426048</v>
+        <v>0.07240077589680524</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1324512596163911</v>
+        <v>0.1752229898955147</v>
       </c>
       <c r="G4">
-        <v>0.02009777603407644</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -918,61 +918,61 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.08646597171548144</v>
+        <v>0.09747720126989122</v>
       </c>
       <c r="L4">
-        <v>0.003242977463923474</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.04742274876621322</v>
+        <v>0.03146812973340856</v>
       </c>
       <c r="N4">
-        <v>0.07175083003114198</v>
+        <v>0.07259880326025032</v>
       </c>
       <c r="O4">
-        <v>0.1551357500747875</v>
+        <v>0.2135748994031547</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01249570754766888</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01854308801291877</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.09742435822804511</v>
+        <v>0.1160041789267345</v>
       </c>
       <c r="T4">
-        <v>0.1566155401590081</v>
+        <v>0.2160767310182142</v>
       </c>
       <c r="U4">
-        <v>0.001968392592608385</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.03187158112678123</v>
+        <v>0.005176290596026589</v>
       </c>
       <c r="W4">
-        <v>0.02817523954087004</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.009574663657381553</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.006454699222901135</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01446110643300724</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.02056527799156072</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002731464844103224</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01091786666686986</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1280206564595654</v>
+        <v>0.1333388363019706</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2798852721599174</v>
+        <v>0.3105272346558061</v>
       </c>
       <c r="G5">
-        <v>0.03428837853239436</v>
+        <v>0.02397648007843654</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03715470023319885</v>
+        <v>0.02732076767953579</v>
       </c>
       <c r="M5">
-        <v>0.007749394418270763</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.09985417220819572</v>
+        <v>0.1004755244057607</v>
       </c>
       <c r="O5">
-        <v>0.1178781570547991</v>
+        <v>0.1215050512128802</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1049,16 +1049,16 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1417469515026552</v>
+        <v>0.1493540234000383</v>
       </c>
       <c r="T5">
-        <v>0.1258049004336117</v>
+        <v>0.1307535977355606</v>
       </c>
       <c r="U5">
-        <v>0.001414487945259759</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01609429011576644</v>
+        <v>0.002748484530011372</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.01010863893636523</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1111,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2341160742800383</v>
+        <v>0.2969602702621108</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2181647104698253</v>
+        <v>0.2740812873240845</v>
       </c>
       <c r="G6">
-        <v>0.01434324163183729</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01079335503553991</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.009670167535012701</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0004937586102160844</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.03369801195448006</v>
+        <v>0.009501374397487694</v>
       </c>
       <c r="O6">
-        <v>0.1392522375865468</v>
+        <v>0.1608974152630609</v>
       </c>
       <c r="P6">
-        <v>0.004703488213067034</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1156,34 +1156,34 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1200690910056672</v>
+        <v>0.1333830980834478</v>
       </c>
       <c r="T6">
-        <v>0.09557838961980843</v>
+        <v>0.09825617440381806</v>
       </c>
       <c r="U6">
-        <v>0.001337369412582549</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.03464210889108214</v>
+        <v>0.01085548919051451</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.007483226084474047</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.03827413505787981</v>
+        <v>0.01606489107547593</v>
       </c>
       <c r="AB6">
-        <v>0.02358770162115376</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.01379293299078849</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1261553640466837</v>
+        <v>0.1739798651156366</v>
       </c>
       <c r="E7">
-        <v>0.06933625972059389</v>
+        <v>0.07330790899259575</v>
       </c>
       <c r="F7">
-        <v>0.159160478485562</v>
+        <v>0.2324582496666758</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.03952267318218901</v>
+        <v>0.02048426610939353</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1239,67 +1239,67 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.009756453829795465</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.08687382887572895</v>
+        <v>0.104380932994487</v>
       </c>
       <c r="N7">
-        <v>0.07013045877495837</v>
+        <v>0.07471506901917906</v>
       </c>
       <c r="O7">
-        <v>0.003297250720804796</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0291550194282118</v>
+        <v>0.002114881442060435</v>
       </c>
       <c r="Q7">
-        <v>0.01780759849225266</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.02554180464066132</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.1354215285799139</v>
+        <v>0.1903976337584606</v>
       </c>
       <c r="T7">
-        <v>0.006008336331461402</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.02716756535845087</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.03922808475734198</v>
+        <v>0.01996231502740615</v>
       </c>
       <c r="X7">
-        <v>0.002593543517314162</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.01595376244607682</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.04253728141045905</v>
+        <v>0.02582554191590439</v>
       </c>
       <c r="AB7">
-        <v>0.07445277339883927</v>
+        <v>0.08237333595820072</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.0173844386253551</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.002515495377345827</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1637263190427155</v>
+        <v>0.235436388770977</v>
       </c>
       <c r="E8">
-        <v>0.0721319394344693</v>
+        <v>0.07741893369615417</v>
       </c>
       <c r="F8">
-        <v>0.2302178956453933</v>
+        <v>0.3501468083797566</v>
       </c>
       <c r="G8">
-        <v>0.005706202281661766</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1346,67 +1346,67 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.01337961597594206</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.04405389004713691</v>
+        <v>0.02897904113257151</v>
       </c>
       <c r="M8">
-        <v>0.04699650970057211</v>
+        <v>0.03405561101467292</v>
       </c>
       <c r="N8">
-        <v>0.05836211208070619</v>
+        <v>0.05366340323055521</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.01609508705885546</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.02155275309097783</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.02140843133401004</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.1373377567755797</v>
+        <v>0.1899111778314961</v>
       </c>
       <c r="T8">
-        <v>0.006885493230608447</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.0242191080687848</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.001453122786819144</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.006325105560114368</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.02046195355664171</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.01934828096855091</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.000893576327827171</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04487095777028086</v>
+        <v>0.03038863594381649</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.02413247551909088</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.0204414137432616</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2350607333866308</v>
+        <v>0.3028721566801829</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1825200033536009</v>
+        <v>0.2264831891722897</v>
       </c>
       <c r="G9">
-        <v>0.00589589650946962</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1450,37 +1450,37 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.003927104607716969</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.04296711136199579</v>
+        <v>0.02358723920589929</v>
       </c>
       <c r="M9">
-        <v>0.03485663209811257</v>
+        <v>0.01179541338671609</v>
       </c>
       <c r="N9">
-        <v>0.1127429574396186</v>
+        <v>0.1250343419680516</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.00299538168133061</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.04028397313681292</v>
+        <v>0.01968622453454186</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.1426630434366565</v>
+        <v>0.1685351550634211</v>
       </c>
       <c r="T9">
-        <v>0.06017680587372041</v>
+        <v>0.0486084140934666</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1489,31 +1489,31 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.01019975535832394</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.01542446986570374</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.006406045682455819</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.07722712003929982</v>
+        <v>0.073397865895431</v>
       </c>
       <c r="AC9">
-        <v>0.006919990171148847</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.001945665264226896</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.01098219656125812</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.006805114171917133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1880198960242873</v>
+        <v>0.3041280812449473</v>
       </c>
       <c r="E10">
-        <v>0.02144291922096618</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1525957706322273</v>
+        <v>0.2361655578204952</v>
       </c>
       <c r="G10">
-        <v>0.00223070274465475</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.02321399211767437</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1563,64 +1563,64 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.02772868772517563</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0221639170855959</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.08721711914655675</v>
+        <v>0.1107341439499383</v>
       </c>
       <c r="O10">
-        <v>0.01774447106465667</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.006950733214777338</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.01430480900361717</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.02194172673435821</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.1527802520203373</v>
+        <v>0.236519492336084</v>
       </c>
       <c r="T10">
-        <v>0.02571472856056479</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.02590222595440286</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.04287739095843576</v>
+        <v>0.02566669959478573</v>
       </c>
       <c r="X10">
-        <v>0.004092696121589752</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.003812082929676192</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.0006041384903274318</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.01711744596340928</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.07473463433085409</v>
+        <v>0.08678602505374937</v>
       </c>
       <c r="AC10">
-        <v>0.002354538944000135</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.02805253489684232</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.01824898160303104</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.005713247214496644</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01244035729748492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1646,22 +1646,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1006246063673645</v>
+        <v>0.13370207729865</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2159836647568199</v>
+        <v>0.350614221013867</v>
       </c>
       <c r="G11">
-        <v>0.06205235970625878</v>
+        <v>0.06117384390300236</v>
       </c>
       <c r="H11">
-        <v>0.01395481029679916</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.000897498157189093</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1670,64 +1670,64 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.02293277566022787</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1048863874923187</v>
+        <v>0.1417155969369429</v>
       </c>
       <c r="O11">
-        <v>0.03901336673482261</v>
+        <v>0.01785312488670675</v>
       </c>
       <c r="P11">
-        <v>0.01654298441513022</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.04237722330377469</v>
+        <v>0.02417825747454873</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0815931771487856</v>
+        <v>0.09791686747291076</v>
       </c>
       <c r="T11">
-        <v>0.07088840494246079</v>
+        <v>0.07778845172754409</v>
       </c>
       <c r="U11">
-        <v>0.007906588171259225</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.03339379043406444</v>
+        <v>0.007286513480661278</v>
       </c>
       <c r="W11">
-        <v>0.004367607209417311</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.02236541353354657</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.02195078986206977</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.07619738688028424</v>
+        <v>0.0877710458051663</v>
       </c>
       <c r="AC11">
-        <v>0.02762528626327237</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.01036740273168346</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.02051655628137374</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.003561919651076925</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1873,76 +1873,76 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08579304699670036</v>
+        <v>0.08991804751633622</v>
       </c>
       <c r="E2">
-        <v>0.08579304699670036</v>
+        <v>0.08991804751633622</v>
       </c>
       <c r="F2">
-        <v>0.2205683136973763</v>
+        <v>0.2487439086565101</v>
       </c>
       <c r="G2">
-        <v>0.2205683136973763</v>
+        <v>0.2487439086565101</v>
       </c>
       <c r="H2">
-        <v>0.2205683136973763</v>
+        <v>0.2487439086565101</v>
       </c>
       <c r="I2">
-        <v>0.2205683136973763</v>
+        <v>0.2487439086565101</v>
       </c>
       <c r="J2">
-        <v>0.2216571443176162</v>
+        <v>0.2487439086565101</v>
       </c>
       <c r="K2">
-        <v>0.2615430276876981</v>
+        <v>0.2740801080185599</v>
       </c>
       <c r="L2">
-        <v>0.3179222114916084</v>
+        <v>0.3226189568155428</v>
       </c>
       <c r="M2">
-        <v>0.3408372021891387</v>
+        <v>0.324080633618636</v>
       </c>
       <c r="N2">
-        <v>0.5313417016127866</v>
+        <v>0.5613059549115382</v>
       </c>
       <c r="O2">
-        <v>0.6055142002434567</v>
+        <v>0.6348763034903309</v>
       </c>
       <c r="P2">
-        <v>0.6055142002434567</v>
+        <v>0.6348763034903309</v>
       </c>
       <c r="Q2">
-        <v>0.6316011772392306</v>
+        <v>0.6408003064594838</v>
       </c>
       <c r="R2">
-        <v>0.6316011772392306</v>
+        <v>0.6408003064594838</v>
       </c>
       <c r="S2">
-        <v>0.7592249548761599</v>
+        <v>0.7895655072515606</v>
       </c>
       <c r="T2">
-        <v>0.888435071707963</v>
+        <v>0.9405623579411956</v>
       </c>
       <c r="U2">
-        <v>0.888435071707963</v>
+        <v>0.9405623579411956</v>
       </c>
       <c r="V2">
-        <v>0.9258570508707666</v>
+        <v>0.9624323556298995</v>
       </c>
       <c r="W2">
-        <v>0.9295435768061908</v>
+        <v>0.9624323556298995</v>
       </c>
       <c r="X2">
-        <v>0.9619412218329776</v>
+        <v>0.977234158322115</v>
       </c>
       <c r="Y2">
-        <v>0.9619412218329776</v>
+        <v>0.977234158322115</v>
       </c>
       <c r="Z2">
-        <v>0.9619412218329776</v>
+        <v>0.977234158322115</v>
       </c>
       <c r="AA2">
-        <v>0.9619412218329776</v>
+        <v>0.977234158322115</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -1980,100 +1980,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1276139273949327</v>
+        <v>0.1507088421227853</v>
       </c>
       <c r="E3">
-        <v>0.1276139273949327</v>
+        <v>0.1507088421227853</v>
       </c>
       <c r="F3">
-        <v>0.3201121252398211</v>
+        <v>0.3968621884117439</v>
       </c>
       <c r="G3">
-        <v>0.3213413695507167</v>
+        <v>0.3968621884117439</v>
       </c>
       <c r="H3">
-        <v>0.3213413695507167</v>
+        <v>0.3968621884117439</v>
       </c>
       <c r="I3">
-        <v>0.3213413695507167</v>
+        <v>0.3968621884117439</v>
       </c>
       <c r="J3">
-        <v>0.3213413695507167</v>
+        <v>0.3968621884117439</v>
       </c>
       <c r="K3">
-        <v>0.3558833517183251</v>
+        <v>0.4106625687085665</v>
       </c>
       <c r="L3">
-        <v>0.3892082273415938</v>
+        <v>0.4226725901119883</v>
       </c>
       <c r="M3">
-        <v>0.413763253409791</v>
+        <v>0.4226725901119883</v>
       </c>
       <c r="N3">
-        <v>0.5280244380334596</v>
+        <v>0.5537396006440998</v>
       </c>
       <c r="O3">
-        <v>0.6294127259608573</v>
+        <v>0.6658706312563081</v>
       </c>
       <c r="P3">
-        <v>0.6294127259608573</v>
+        <v>0.6658706312563081</v>
       </c>
       <c r="Q3">
-        <v>0.6360534104468331</v>
+        <v>0.6658706312563081</v>
       </c>
       <c r="R3">
-        <v>0.6360534104468331</v>
+        <v>0.6658706312563081</v>
       </c>
       <c r="S3">
-        <v>0.7737470909873171</v>
+        <v>0.8314067502279038</v>
       </c>
       <c r="T3">
-        <v>0.913519044167944</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.913519044167944</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.9383354542843806</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9505872189926829</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.9635064342413804</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.9678945944978672</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0.9678945944978672</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.9678945944978672</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.9927876187121717</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9927876187121717</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9927876187121717</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9954289224463825</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -2087,88 +2087,88 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07163370027426048</v>
+        <v>0.07240077589680524</v>
       </c>
       <c r="E4">
-        <v>0.07163370027426048</v>
+        <v>0.07240077589680524</v>
       </c>
       <c r="F4">
-        <v>0.2040849598906516</v>
+        <v>0.24762376579232</v>
       </c>
       <c r="G4">
-        <v>0.2241827359247281</v>
+        <v>0.24762376579232</v>
       </c>
       <c r="H4">
-        <v>0.2241827359247281</v>
+        <v>0.24762376579232</v>
       </c>
       <c r="I4">
-        <v>0.2241827359247281</v>
+        <v>0.24762376579232</v>
       </c>
       <c r="J4">
-        <v>0.2241827359247281</v>
+        <v>0.24762376579232</v>
       </c>
       <c r="K4">
-        <v>0.3106487076402095</v>
+        <v>0.3451009670622112</v>
       </c>
       <c r="L4">
-        <v>0.313891685104133</v>
+        <v>0.3451009670622112</v>
       </c>
       <c r="M4">
-        <v>0.3613144338703462</v>
+        <v>0.3765690967956198</v>
       </c>
       <c r="N4">
-        <v>0.4330652639014882</v>
+        <v>0.4491679000558701</v>
       </c>
       <c r="O4">
-        <v>0.5882010139762757</v>
+        <v>0.6627427994590247</v>
       </c>
       <c r="P4">
-        <v>0.5882010139762757</v>
+        <v>0.6627427994590247</v>
       </c>
       <c r="Q4">
-        <v>0.6006967215239445</v>
+        <v>0.6627427994590247</v>
       </c>
       <c r="R4">
-        <v>0.6192398095368633</v>
+        <v>0.6627427994590247</v>
       </c>
       <c r="S4">
-        <v>0.7166641677649084</v>
+        <v>0.7787469783857592</v>
       </c>
       <c r="T4">
-        <v>0.8732797079239165</v>
+        <v>0.9948237094039735</v>
       </c>
       <c r="U4">
-        <v>0.8752481005165249</v>
+        <v>0.9948237094039735</v>
       </c>
       <c r="V4">
-        <v>0.9071196816433061</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9352949211841762</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.9448695848415578</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.9513242840644589</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.9513242840644589</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9657853904974661</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9863506684890269</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9890821333331301</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9890821333331301</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9890821333331301</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -2194,67 +2194,67 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1280206564595654</v>
+        <v>0.1333388363019706</v>
       </c>
       <c r="E5">
-        <v>0.1280206564595654</v>
+        <v>0.1333388363019706</v>
       </c>
       <c r="F5">
-        <v>0.4079059286194828</v>
+        <v>0.4438660709577767</v>
       </c>
       <c r="G5">
-        <v>0.4421943071518772</v>
+        <v>0.4678425510362133</v>
       </c>
       <c r="H5">
-        <v>0.4421943071518772</v>
+        <v>0.4678425510362133</v>
       </c>
       <c r="I5">
-        <v>0.4421943071518772</v>
+        <v>0.4678425510362133</v>
       </c>
       <c r="J5">
-        <v>0.4421943071518772</v>
+        <v>0.4678425510362133</v>
       </c>
       <c r="K5">
-        <v>0.4421943071518772</v>
+        <v>0.4678425510362133</v>
       </c>
       <c r="L5">
-        <v>0.479349007385076</v>
+        <v>0.4951633187157491</v>
       </c>
       <c r="M5">
-        <v>0.4870984018033468</v>
+        <v>0.4951633187157491</v>
       </c>
       <c r="N5">
-        <v>0.5869525740115425</v>
+        <v>0.5956388431215098</v>
       </c>
       <c r="O5">
-        <v>0.7048307310663416</v>
+        <v>0.7171438943343901</v>
       </c>
       <c r="P5">
-        <v>0.7048307310663416</v>
+        <v>0.7171438943343901</v>
       </c>
       <c r="Q5">
-        <v>0.7048307310663416</v>
+        <v>0.7171438943343901</v>
       </c>
       <c r="R5">
-        <v>0.7048307310663416</v>
+        <v>0.7171438943343901</v>
       </c>
       <c r="S5">
-        <v>0.8465776825689969</v>
+        <v>0.8664979177344283</v>
       </c>
       <c r="T5">
-        <v>0.9723825830026086</v>
+        <v>0.9972515154699888</v>
       </c>
       <c r="U5">
-        <v>0.9737970709478684</v>
+        <v>0.9972515154699888</v>
       </c>
       <c r="V5">
-        <v>0.9898913610636348</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9898913610636348</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.9898913610636348</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -2301,88 +2301,88 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2341160742800383</v>
+        <v>0.2969602702621108</v>
       </c>
       <c r="E6">
-        <v>0.2341160742800383</v>
+        <v>0.2969602702621108</v>
       </c>
       <c r="F6">
-        <v>0.4522807847498637</v>
+        <v>0.5710415575861953</v>
       </c>
       <c r="G6">
-        <v>0.466624026381701</v>
+        <v>0.5710415575861953</v>
       </c>
       <c r="H6">
-        <v>0.4774173814172409</v>
+        <v>0.5710415575861953</v>
       </c>
       <c r="I6">
-        <v>0.4774173814172409</v>
+        <v>0.5710415575861953</v>
       </c>
       <c r="J6">
-        <v>0.4774173814172409</v>
+        <v>0.5710415575861953</v>
       </c>
       <c r="K6">
-        <v>0.4870875489522536</v>
+        <v>0.5710415575861953</v>
       </c>
       <c r="L6">
-        <v>0.4870875489522536</v>
+        <v>0.5710415575861953</v>
       </c>
       <c r="M6">
-        <v>0.4875813075624697</v>
+        <v>0.5710415575861953</v>
       </c>
       <c r="N6">
-        <v>0.5212793195169497</v>
+        <v>0.580542931983683</v>
       </c>
       <c r="O6">
-        <v>0.6605315571034965</v>
+        <v>0.7414403472467439</v>
       </c>
       <c r="P6">
-        <v>0.6652350453165635</v>
+        <v>0.7414403472467439</v>
       </c>
       <c r="Q6">
-        <v>0.6652350453165635</v>
+        <v>0.7414403472467439</v>
       </c>
       <c r="R6">
-        <v>0.6652350453165635</v>
+        <v>0.7414403472467439</v>
       </c>
       <c r="S6">
-        <v>0.7853041363222307</v>
+        <v>0.8748234453301917</v>
       </c>
       <c r="T6">
-        <v>0.8808825259420392</v>
+        <v>0.9730796197340098</v>
       </c>
       <c r="U6">
-        <v>0.8822198953546218</v>
+        <v>0.9730796197340098</v>
       </c>
       <c r="V6">
-        <v>0.8822198953546218</v>
+        <v>0.9730796197340098</v>
       </c>
       <c r="W6">
-        <v>0.9168620042457039</v>
+        <v>0.9839351089245243</v>
       </c>
       <c r="X6">
-        <v>0.9168620042457039</v>
+        <v>0.9839351089245243</v>
       </c>
       <c r="Y6">
-        <v>0.9243452303301779</v>
+        <v>0.9839351089245243</v>
       </c>
       <c r="Z6">
-        <v>0.9243452303301779</v>
+        <v>0.9839351089245243</v>
       </c>
       <c r="AA6">
-        <v>0.9626193653880577</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9862070670092115</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9862070670092115</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9862070670092115</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9862070670092115</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -2408,85 +2408,85 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1261553640466837</v>
+        <v>0.1739798651156366</v>
       </c>
       <c r="E7">
-        <v>0.1954916237672776</v>
+        <v>0.2472877741082323</v>
       </c>
       <c r="F7">
-        <v>0.3546521022528396</v>
+        <v>0.4797460237749082</v>
       </c>
       <c r="G7">
-        <v>0.3546521022528396</v>
+        <v>0.4797460237749082</v>
       </c>
       <c r="H7">
-        <v>0.3941747754350286</v>
+        <v>0.5002302898843017</v>
       </c>
       <c r="I7">
-        <v>0.3941747754350286</v>
+        <v>0.5002302898843017</v>
       </c>
       <c r="J7">
-        <v>0.3941747754350286</v>
+        <v>0.5002302898843017</v>
       </c>
       <c r="K7">
-        <v>0.4039312292648241</v>
+        <v>0.5002302898843017</v>
       </c>
       <c r="L7">
-        <v>0.4039312292648241</v>
+        <v>0.5002302898843017</v>
       </c>
       <c r="M7">
-        <v>0.490805058140553</v>
+        <v>0.6046112228787887</v>
       </c>
       <c r="N7">
-        <v>0.5609355169155114</v>
+        <v>0.6793262918979677</v>
       </c>
       <c r="O7">
-        <v>0.5642327676363161</v>
+        <v>0.6793262918979677</v>
       </c>
       <c r="P7">
-        <v>0.5933877870645279</v>
+        <v>0.6814411733400281</v>
       </c>
       <c r="Q7">
-        <v>0.6111953855567805</v>
+        <v>0.6814411733400281</v>
       </c>
       <c r="R7">
-        <v>0.6367371901974419</v>
+        <v>0.6814411733400281</v>
       </c>
       <c r="S7">
-        <v>0.7721587187773558</v>
+        <v>0.8718388070984887</v>
       </c>
       <c r="T7">
-        <v>0.7781670551088171</v>
+        <v>0.8718388070984887</v>
       </c>
       <c r="U7">
-        <v>0.805334620467268</v>
+        <v>0.8718388070984887</v>
       </c>
       <c r="V7">
-        <v>0.805334620467268</v>
+        <v>0.8718388070984887</v>
       </c>
       <c r="W7">
-        <v>0.84456270522461</v>
+        <v>0.8918011221258949</v>
       </c>
       <c r="X7">
-        <v>0.8471562487419241</v>
+        <v>0.8918011221258949</v>
       </c>
       <c r="Y7">
-        <v>0.8631100111880009</v>
+        <v>0.8918011221258949</v>
       </c>
       <c r="Z7">
-        <v>0.8631100111880009</v>
+        <v>0.8918011221258949</v>
       </c>
       <c r="AA7">
-        <v>0.90564729259846</v>
+        <v>0.9176266640417993</v>
       </c>
       <c r="AB7">
-        <v>0.9801000659972993</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9801000659972993</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9974845046226544</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -2515,85 +2515,85 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1637263190427155</v>
+        <v>0.235436388770977</v>
       </c>
       <c r="E8">
-        <v>0.2358582584771848</v>
+        <v>0.3128553224671312</v>
       </c>
       <c r="F8">
-        <v>0.4660761541225781</v>
+        <v>0.6630021308468879</v>
       </c>
       <c r="G8">
-        <v>0.4717823564042398</v>
+        <v>0.6630021308468879</v>
       </c>
       <c r="H8">
-        <v>0.4717823564042398</v>
+        <v>0.6630021308468879</v>
       </c>
       <c r="I8">
-        <v>0.4717823564042398</v>
+        <v>0.6630021308468879</v>
       </c>
       <c r="J8">
-        <v>0.4717823564042398</v>
+        <v>0.6630021308468879</v>
       </c>
       <c r="K8">
-        <v>0.4851619723801819</v>
+        <v>0.6630021308468879</v>
       </c>
       <c r="L8">
-        <v>0.5292158624273188</v>
+        <v>0.6919811719794594</v>
       </c>
       <c r="M8">
-        <v>0.5762123721278909</v>
+        <v>0.7260367829941323</v>
       </c>
       <c r="N8">
-        <v>0.6345744842085971</v>
+        <v>0.7797001862246875</v>
       </c>
       <c r="O8">
-        <v>0.6345744842085971</v>
+        <v>0.7797001862246875</v>
       </c>
       <c r="P8">
-        <v>0.6506695712674525</v>
+        <v>0.7797001862246875</v>
       </c>
       <c r="Q8">
-        <v>0.6722223243584303</v>
+        <v>0.7797001862246875</v>
       </c>
       <c r="R8">
-        <v>0.6936307556924404</v>
+        <v>0.7797001862246875</v>
       </c>
       <c r="S8">
-        <v>0.8309685124680202</v>
+        <v>0.9696113640561836</v>
       </c>
       <c r="T8">
-        <v>0.8378540056986287</v>
+        <v>0.9696113640561836</v>
       </c>
       <c r="U8">
-        <v>0.8620731137674135</v>
+        <v>0.9696113640561836</v>
       </c>
       <c r="V8">
-        <v>0.8635262365542327</v>
+        <v>0.9696113640561836</v>
       </c>
       <c r="W8">
-        <v>0.869851342114347</v>
+        <v>0.9696113640561836</v>
       </c>
       <c r="X8">
-        <v>0.869851342114347</v>
+        <v>0.9696113640561836</v>
       </c>
       <c r="Y8">
-        <v>0.8903132956709887</v>
+        <v>0.9696113640561836</v>
       </c>
       <c r="Z8">
-        <v>0.9096615766395396</v>
+        <v>0.9696113640561836</v>
       </c>
       <c r="AA8">
-        <v>0.9105551529673668</v>
+        <v>0.9696113640561836</v>
       </c>
       <c r="AB8">
-        <v>0.9554261107376476</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9554261107376476</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9795585862567385</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2622,97 +2622,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2350607333866308</v>
+        <v>0.3028721566801829</v>
       </c>
       <c r="E9">
-        <v>0.2350607333866308</v>
+        <v>0.3028721566801829</v>
       </c>
       <c r="F9">
-        <v>0.4175807367402318</v>
+        <v>0.5293553458524726</v>
       </c>
       <c r="G9">
-        <v>0.4234766332497014</v>
+        <v>0.5293553458524726</v>
       </c>
       <c r="H9">
-        <v>0.4234766332497014</v>
+        <v>0.5293553458524726</v>
       </c>
       <c r="I9">
-        <v>0.4234766332497014</v>
+        <v>0.5293553458524726</v>
       </c>
       <c r="J9">
-        <v>0.4274037378574184</v>
+        <v>0.5293553458524726</v>
       </c>
       <c r="K9">
-        <v>0.4274037378574184</v>
+        <v>0.5293553458524726</v>
       </c>
       <c r="L9">
-        <v>0.4703708492194141</v>
+        <v>0.5529425850583719</v>
       </c>
       <c r="M9">
-        <v>0.5052274813175267</v>
+        <v>0.564737998445088</v>
       </c>
       <c r="N9">
-        <v>0.6179704387571453</v>
+        <v>0.6897723404131396</v>
       </c>
       <c r="O9">
-        <v>0.6179704387571453</v>
+        <v>0.6897723404131396</v>
       </c>
       <c r="P9">
-        <v>0.6209658204384759</v>
+        <v>0.6897723404131396</v>
       </c>
       <c r="Q9">
-        <v>0.6612497935752888</v>
+        <v>0.7094585649476814</v>
       </c>
       <c r="R9">
-        <v>0.6612497935752888</v>
+        <v>0.7094585649476814</v>
       </c>
       <c r="S9">
-        <v>0.8039128370119453</v>
+        <v>0.8779937200111025</v>
       </c>
       <c r="T9">
-        <v>0.8640896428856657</v>
+        <v>0.9266021341045692</v>
       </c>
       <c r="U9">
-        <v>0.8640896428856657</v>
+        <v>0.9266021341045692</v>
       </c>
       <c r="V9">
-        <v>0.8640896428856657</v>
+        <v>0.9266021341045692</v>
       </c>
       <c r="W9">
-        <v>0.8742893982439897</v>
+        <v>0.9266021341045692</v>
       </c>
       <c r="X9">
-        <v>0.8897138681096934</v>
+        <v>0.9266021341045692</v>
       </c>
       <c r="Y9">
-        <v>0.8897138681096934</v>
+        <v>0.9266021341045692</v>
       </c>
       <c r="Z9">
-        <v>0.8961199137921493</v>
+        <v>0.9266021341045692</v>
       </c>
       <c r="AA9">
-        <v>0.8961199137921493</v>
+        <v>0.9266021341045692</v>
       </c>
       <c r="AB9">
-        <v>0.9733470338314492</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.980267024002598</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9822126892668249</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.993194885828083</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.993194885828083</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.993194885828083</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.993194885828083</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -2729,100 +2729,100 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1880198960242873</v>
+        <v>0.3041280812449473</v>
       </c>
       <c r="E10">
-        <v>0.2094628152452535</v>
+        <v>0.3041280812449473</v>
       </c>
       <c r="F10">
-        <v>0.3620585858774809</v>
+        <v>0.5402936390654425</v>
       </c>
       <c r="G10">
-        <v>0.3642892886221356</v>
+        <v>0.5402936390654425</v>
       </c>
       <c r="H10">
-        <v>0.38750328073981</v>
+        <v>0.5402936390654425</v>
       </c>
       <c r="I10">
-        <v>0.38750328073981</v>
+        <v>0.5402936390654425</v>
       </c>
       <c r="J10">
-        <v>0.38750328073981</v>
+        <v>0.5402936390654425</v>
       </c>
       <c r="K10">
-        <v>0.38750328073981</v>
+        <v>0.5402936390654425</v>
       </c>
       <c r="L10">
-        <v>0.4152319684649856</v>
+        <v>0.5402936390654425</v>
       </c>
       <c r="M10">
-        <v>0.4373958855505815</v>
+        <v>0.5402936390654425</v>
       </c>
       <c r="N10">
-        <v>0.5246130046971382</v>
+        <v>0.6510277830153808</v>
       </c>
       <c r="O10">
-        <v>0.5423574757617949</v>
+        <v>0.6510277830153808</v>
       </c>
       <c r="P10">
-        <v>0.5493082089765723</v>
+        <v>0.6510277830153808</v>
       </c>
       <c r="Q10">
-        <v>0.5636130179801895</v>
+        <v>0.6510277830153808</v>
       </c>
       <c r="R10">
-        <v>0.5855547447145477</v>
+        <v>0.6510277830153808</v>
       </c>
       <c r="S10">
-        <v>0.738334996734885</v>
+        <v>0.8875472753514648</v>
       </c>
       <c r="T10">
-        <v>0.7640497252954498</v>
+        <v>0.8875472753514648</v>
       </c>
       <c r="U10">
-        <v>0.7899519512498526</v>
+        <v>0.8875472753514648</v>
       </c>
       <c r="V10">
-        <v>0.7899519512498526</v>
+        <v>0.8875472753514648</v>
       </c>
       <c r="W10">
-        <v>0.8328293422082884</v>
+        <v>0.9132139749462506</v>
       </c>
       <c r="X10">
-        <v>0.8369220383298782</v>
+        <v>0.9132139749462506</v>
       </c>
       <c r="Y10">
-        <v>0.8407341212595544</v>
+        <v>0.9132139749462506</v>
       </c>
       <c r="Z10">
-        <v>0.8413382597498819</v>
+        <v>0.9132139749462506</v>
       </c>
       <c r="AA10">
-        <v>0.8584557057132911</v>
+        <v>0.9132139749462506</v>
       </c>
       <c r="AB10">
-        <v>0.9331903400441453</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.9355448789881454</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD10">
-        <v>0.9635974138849878</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE10">
-        <v>0.9818463954880188</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF10">
-        <v>0.9818463954880188</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG10">
-        <v>0.9818463954880188</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.9875596427025154</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2836,100 +2836,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1006246063673645</v>
+        <v>0.13370207729865</v>
       </c>
       <c r="E11">
-        <v>0.1006246063673645</v>
+        <v>0.13370207729865</v>
       </c>
       <c r="F11">
-        <v>0.3166082711241844</v>
+        <v>0.484316298312517</v>
       </c>
       <c r="G11">
-        <v>0.3786606308304432</v>
+        <v>0.5454901422155194</v>
       </c>
       <c r="H11">
-        <v>0.3926154411272423</v>
+        <v>0.5454901422155194</v>
       </c>
       <c r="I11">
-        <v>0.3935129392844314</v>
+        <v>0.5454901422155194</v>
       </c>
       <c r="J11">
-        <v>0.3935129392844314</v>
+        <v>0.5454901422155194</v>
       </c>
       <c r="K11">
-        <v>0.3935129392844314</v>
+        <v>0.5454901422155194</v>
       </c>
       <c r="L11">
-        <v>0.4164457149446593</v>
+        <v>0.5454901422155194</v>
       </c>
       <c r="M11">
-        <v>0.4164457149446593</v>
+        <v>0.5454901422155194</v>
       </c>
       <c r="N11">
-        <v>0.521332102436978</v>
+        <v>0.6872057391524622</v>
       </c>
       <c r="O11">
-        <v>0.5603454691718006</v>
+        <v>0.705058864039169</v>
       </c>
       <c r="P11">
-        <v>0.5768884535869309</v>
+        <v>0.705058864039169</v>
       </c>
       <c r="Q11">
-        <v>0.6192656768907056</v>
+        <v>0.7292371215137177</v>
       </c>
       <c r="R11">
-        <v>0.6192656768907056</v>
+        <v>0.7292371215137177</v>
       </c>
       <c r="S11">
-        <v>0.7008588540394911</v>
+        <v>0.8271539889866284</v>
       </c>
       <c r="T11">
-        <v>0.7717472589819518</v>
+        <v>0.9049424407141725</v>
       </c>
       <c r="U11">
-        <v>0.7796538471532111</v>
+        <v>0.9049424407141725</v>
       </c>
       <c r="V11">
-        <v>0.8130476375872755</v>
+        <v>0.9122289541948337</v>
       </c>
       <c r="W11">
-        <v>0.8174152447966928</v>
+        <v>0.9122289541948337</v>
       </c>
       <c r="X11">
-        <v>0.8397806583302394</v>
+        <v>0.9122289541948337</v>
       </c>
       <c r="Y11">
-        <v>0.8397806583302394</v>
+        <v>0.9122289541948337</v>
       </c>
       <c r="Z11">
-        <v>0.8617314481923092</v>
+        <v>0.9122289541948337</v>
       </c>
       <c r="AA11">
-        <v>0.8617314481923092</v>
+        <v>0.9122289541948337</v>
       </c>
       <c r="AB11">
-        <v>0.9379288350725934</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.9655541213358657</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9759215240675492</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9964380803489229</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9964380803489229</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9964380803489229</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9964380803489229</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2991,34 +2991,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.5613059549115382</v>
+      </c>
+      <c r="F2">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5313417016127866</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>9</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3032,34 +3032,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.5537396006440998</v>
+      </c>
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5280244380334596</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>9</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -3073,34 +3073,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.6627427994590247</v>
+      </c>
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5882010139762757</v>
-      </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>9</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -3114,34 +3114,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.5956388431215098</v>
+      </c>
+      <c r="F5">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5869525740115425</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>9</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -3155,34 +3155,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5710415575861953</v>
       </c>
       <c r="F6">
-        <v>0.5212793195169497</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>9</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -3196,34 +3196,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5002302898843017</v>
       </c>
       <c r="F7">
-        <v>0.5609355169155114</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>9</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -3237,34 +3237,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.6630021308468879</v>
       </c>
       <c r="F8">
-        <v>0.5292158624273188</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>9</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -3278,34 +3278,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5293553458524726</v>
       </c>
       <c r="F9">
-        <v>0.5052274813175267</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>9</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -3319,34 +3319,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5402936390654425</v>
       </c>
       <c r="F10">
-        <v>0.5246130046971382</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>9</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -3360,34 +3360,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5454901422155194</v>
       </c>
       <c r="F11">
-        <v>0.521332102436978</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>9</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -3455,34 +3455,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.7895655072515606</v>
+      </c>
+      <c r="F2">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7592249548761599</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>9</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3496,34 +3496,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.8314067502279038</v>
+      </c>
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7737470909873171</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>9</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -3537,34 +3537,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.7787469783857592</v>
+      </c>
+      <c r="F4">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7166641677649084</v>
-      </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>9</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -3578,34 +3578,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.7171438943343901</v>
+      </c>
+      <c r="F5">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7048307310663416</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>9</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -3619,34 +3619,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7414403472467439</v>
       </c>
       <c r="F6">
-        <v>0.7853041363222307</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>9</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -3660,34 +3660,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.8718388070984887</v>
+      </c>
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7721587187773558</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>17</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>9</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -3701,34 +3701,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7260367829941323</v>
       </c>
       <c r="F8">
-        <v>0.8309685124680202</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>9</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -3742,34 +3742,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7094585649476814</v>
       </c>
       <c r="F9">
-        <v>0.8039128370119453</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>9</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -3783,34 +3783,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.8875472753514648</v>
+      </c>
+      <c r="F10">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.738334996734885</v>
-      </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
         <v>17</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>9</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -3824,34 +3824,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.705058864039169</v>
       </c>
       <c r="F11">
-        <v>0.7008588540394911</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>9</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -3919,34 +3919,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.9405623579411956</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.888435071707963</v>
-      </c>
       <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>9</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -3960,34 +3960,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>19</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8314067502279038</v>
       </c>
       <c r="F3">
-        <v>0.913519044167944</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>9</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -4001,34 +4001,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.9948237094039735</v>
+      </c>
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8732797079239165</v>
-      </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>9</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -4042,34 +4042,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.8664979177344283</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8465776825689969</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>9</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -4083,34 +4083,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8748234453301917</v>
       </c>
       <c r="F6">
-        <v>0.8808825259420392</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>9</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -4124,34 +4124,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8718388070984887</v>
       </c>
       <c r="F7">
-        <v>0.805334620467268</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>9</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -4165,34 +4165,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9696113640561836</v>
+      </c>
+      <c r="F8">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8309685124680202</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>9</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -4206,34 +4206,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.8779937200111025</v>
+      </c>
+      <c r="F9">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8039128370119453</v>
-      </c>
       <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
         <v>17</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>9</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -4247,34 +4247,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8875472753514648</v>
       </c>
       <c r="F10">
-        <v>0.8328293422082884</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>9</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -4288,34 +4288,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8271539889866284</v>
       </c>
       <c r="F11">
-        <v>0.8130476375872755</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>9</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -4383,34 +4383,34 @@
         <v>35</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9405623579411956</v>
       </c>
       <c r="F2">
-        <v>0.9258570508707666</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>9</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -4424,34 +4424,34 @@
         <v>36</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.913519044167944</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>18</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3">
         <v>9</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -4465,34 +4465,34 @@
         <v>37</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9948237094039735</v>
       </c>
       <c r="F4">
-        <v>0.9071196816433061</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
         <v>9</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -4506,34 +4506,34 @@
         <v>38</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9972515154699888</v>
+      </c>
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9723825830026086</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
         <v>9</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -4547,34 +4547,34 @@
         <v>39</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9730796197340098</v>
       </c>
       <c r="F6">
-        <v>0.9168620042457039</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
         <v>9</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -4588,34 +4588,34 @@
         <v>40</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9176266640417993</v>
+      </c>
+      <c r="F7">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.90564729259846</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>25</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7">
         <v>9</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -4629,34 +4629,34 @@
         <v>41</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9696113640561836</v>
       </c>
       <c r="F8">
-        <v>0.9096615766395396</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
         <v>9</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -4670,34 +4670,34 @@
         <v>42</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>27</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9266021341045692</v>
       </c>
       <c r="F9">
-        <v>0.9733470338314492</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
         <v>9</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -4711,34 +4711,34 @@
         <v>43</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9132139749462506</v>
       </c>
       <c r="F10">
-        <v>0.9331903400441453</v>
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
         <v>9</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -4752,34 +4752,34 @@
         <v>44</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9049424407141725</v>
       </c>
       <c r="F11">
-        <v>0.9379288350725934</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
         <v>9</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
